--- a/biology/Histoire de la zoologie et de la botanique/Guy_Roberty/Guy_Roberty.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Guy_Roberty/Guy_Roberty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Édouard Roberty est un botaniste[1] et explorateur français, né le 17 août 1907 à Marseille et mort le 7 février 1971 à  Saint-Félicien, en Ardèche, surtout connu pour ses travaux sur la végétation d'Afrique tropicale occidentale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Édouard Roberty est un botaniste et explorateur français, né le 17 août 1907 à Marseille et mort le 7 février 1971 à  Saint-Félicien, en Ardèche, surtout connu pour ses travaux sur la végétation d'Afrique tropicale occidentale.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1933 à 1939, Guy Roberty travaille comme ingénieur agricole pour l'Office du Niger, au jardin botanique de Soninkoura, à quelques kilomètres de Ségou (Mali). Il y réunit une collection de huit cents espèces de plantes, dont cinq cents indigènes, caractéristiques des divers écosystèmes d'Afrique occidentale, tant forestières que fruitières, tant alimentaires que médicinales ou ornementales[2],[3].
-Sous la direction de Georges Hochreutiner à l’université de Genève, il obtient son doctorat en sciences naturelles en 1940, avec une Contribution à l'étude phytogéographique de l'Afrique-Occidentale française[4].
-Pendant plus de vingt ans, de 1934 à 1955, Roberty ne cesse de retourner sur le terrain[5]. Entre autres travaux, il poursuit des recherches sur les Cotonniers cultivés, de la systématique desquels il propose une révision complète, aussitôt vivement critiquée[6],[7]. En 1947 et 1948, c'est de près de deux mille six cents plantes rapportées d'Afrique-Occidentale française qu'il dote l'herbier du Conservatoire botanique de Genève[8].
-Devenu directeur de recherche à l’Office de la recherche scientifique et technique outre-mer (Orstom), il continue de consacrer l'essentiel de ses travaux au recensement et à l’étude de la végétation d'Afrique tropicale occidentale. Il contribue à la connaissance de nombreuses familles botaniques, notamment des Andropogonées, plantes très recherchées par le bétail et utiles à divers usages[9]. Il identifie ou il classe plus de cinq cents espèces nouvelles[10]. Entre autres nombreuses publications, on lui doit une Petite Flore de l'Ouest africain (1954) et une Carte de la végétation de l'Afrique tropicale occidentale (1964).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1933 à 1939, Guy Roberty travaille comme ingénieur agricole pour l'Office du Niger, au jardin botanique de Soninkoura, à quelques kilomètres de Ségou (Mali). Il y réunit une collection de huit cents espèces de plantes, dont cinq cents indigènes, caractéristiques des divers écosystèmes d'Afrique occidentale, tant forestières que fruitières, tant alimentaires que médicinales ou ornementales,.
+Sous la direction de Georges Hochreutiner à l’université de Genève, il obtient son doctorat en sciences naturelles en 1940, avec une Contribution à l'étude phytogéographique de l'Afrique-Occidentale française.
+Pendant plus de vingt ans, de 1934 à 1955, Roberty ne cesse de retourner sur le terrain. Entre autres travaux, il poursuit des recherches sur les Cotonniers cultivés, de la systématique desquels il propose une révision complète, aussitôt vivement critiquée,. En 1947 et 1948, c'est de près de deux mille six cents plantes rapportées d'Afrique-Occidentale française qu'il dote l'herbier du Conservatoire botanique de Genève.
+Devenu directeur de recherche à l’Office de la recherche scientifique et technique outre-mer (Orstom), il continue de consacrer l'essentiel de ses travaux au recensement et à l’étude de la végétation d'Afrique tropicale occidentale. Il contribue à la connaissance de nombreuses familles botaniques, notamment des Andropogonées, plantes très recherchées par le bétail et utiles à divers usages. Il identifie ou il classe plus de cinq cents espèces nouvelles. Entre autres nombreuses publications, on lui doit une Petite Flore de l'Ouest africain (1954) et une Carte de la végétation de l'Afrique tropicale occidentale (1964).
 </t>
         </is>
       </c>
@@ -545,26 +559,96 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Guy Roberty, sur Wikispecies
-Volumes
-1942 : « Contribution à l'étude phytogéographique de l'Afrique occidentale française », thèse présentée à la Faculté des sciences de l'Université de Genève, Genève, Société genevoise d'éditions et impressions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guy_Roberty</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guy_Roberty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1942 : « Contribution à l'étude phytogéographique de l'Afrique occidentale française », thèse présentée à la Faculté des sciences de l'Université de Genève, Genève, Société genevoise d'éditions et impressions.
 1946 : Les Associations végétales de la vallée moyenne du Niger, Berne, Hans Huber, coll. « Veröffentlichungen des Geobotanischen Instituts Rübel in Zürich » (no 22), 168 p. (lire en ligne).
-1954 : Petite flore de l'Ouest africain  (préf. Raoul Combes), Paris, Orstom et Larose, 442 p. (lire en ligne)[11].
+1954 : Petite flore de l'Ouest africain  (préf. Raoul Combes), Paris, Orstom et Larose, 442 p. (lire en ligne).
 1958 : « Titres et travaux scientifiques de Guy Roberty », France.
-1960 : Monographie systématique des Andropogonées du globe, Genève et Paris, Conservatoire et Jardin botaniques de Genève et Orstom, coll. « Boissiera » (no 9), 455 p. (lire en ligne)[12].
-1964 : Les Genres de Polygonacées [suivi de] Les Genres de Convolvulacées (esquisse, avec Simone Vautier), Genève et Paris, Conservatoire et Jardin botaniques de Genève et Orstom, coll. « Boissiera » (no 10) (ISBN 2-827-70025-5).
-Cartographie
-1951-1957 : Carte de la végétation de l'Afrique-Occidentale française au 1/200 000e, Paris, Orstom
+1960 : Monographie systématique des Andropogonées du globe, Genève et Paris, Conservatoire et Jardin botaniques de Genève et Orstom, coll. « Boissiera » (no 9), 455 p. (lire en ligne).
+1964 : Les Genres de Polygonacées [suivi de] Les Genres de Convolvulacées (esquisse, avec Simone Vautier), Genève et Paris, Conservatoire et Jardin botaniques de Genève et Orstom, coll. « Boissiera » (no 10) (ISBN 2-827-70025-5).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guy_Roberty</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guy_Roberty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cartographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1951-1957 : Carte de la végétation de l'Afrique-Occidentale française au 1/200 000e, Paris, Orstom
 « Feuille de Thiès », avec Henri Gaussen et Jean Trochain, 1951 [télécharger (page consultée le 13 février 2020)].
 « Feuille de Bouaké », 1953 [télécharger (page consultée le 13 février 2020)].
 « Feuille de Louga », avec Jean Trochain, 1956 [télécharger (page consultée le 13 février 2020)].
 « Feuille de Diafarabé », 1957 [télécharger (page consultée le 13 février 2020)].
-1964 : Carte de la végétation de l'Afrique tropicale occidentale à l'échelle de 1/1 000 000, et documents annexes en 3 vol., Orstom, Paris.
-Quelques articles</t>
+1964 : Carte de la végétation de l'Afrique tropicale occidentale à l'échelle de 1/1 000 000, et documents annexes en 3 vol., Orstom, Paris.</t>
         </is>
       </c>
     </row>
